--- a/Code/Results/Cases/Case_1_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_166/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4382616162022828</v>
+        <v>0.161797665277291</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0008485409229059826</v>
+        <v>0.0003530347199651729</v>
       </c>
       <c r="E2">
-        <v>0.0343028322919956</v>
+        <v>0.07945540271330387</v>
       </c>
       <c r="F2">
-        <v>1.190130067309951</v>
+        <v>0.5977386150767501</v>
       </c>
       <c r="G2">
-        <v>0.0007381608960584593</v>
+        <v>0.002345103280840417</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2655778373085091</v>
+        <v>0.3451948428057143</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.036478395701209</v>
+        <v>0.6505005855176478</v>
       </c>
       <c r="N2">
-        <v>1.679654400758551</v>
+        <v>1.231231664624772</v>
       </c>
       <c r="O2">
-        <v>3.756590262656687</v>
+        <v>1.913375912927279</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3818762982331521</v>
+        <v>0.1434408339321323</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.000734051336194419</v>
+        <v>0.0003268267869325214</v>
       </c>
       <c r="E3">
-        <v>0.03398565680384635</v>
+        <v>0.08169543410162916</v>
       </c>
       <c r="F3">
-        <v>1.032965878648426</v>
+        <v>0.5607374907240228</v>
       </c>
       <c r="G3">
-        <v>0.0007440313716000548</v>
+        <v>0.002349010242533296</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2610425822156763</v>
+        <v>0.3459606103821358</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.766199067315128</v>
+        <v>0.5706096327045316</v>
       </c>
       <c r="N3">
-        <v>1.562633477019219</v>
+        <v>1.195113874855991</v>
       </c>
       <c r="O3">
-        <v>3.260340624309038</v>
+        <v>1.798077163701407</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3471948991417548</v>
+        <v>0.1321466050026316</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0006683478698956691</v>
+        <v>0.0003109512802952352</v>
       </c>
       <c r="E4">
-        <v>0.03422035929198941</v>
+        <v>0.08320312098164528</v>
       </c>
       <c r="F4">
-        <v>0.9383506100463563</v>
+        <v>0.5384317102994913</v>
       </c>
       <c r="G4">
-        <v>0.0007477435934299315</v>
+        <v>0.002351537737991335</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2586609870134637</v>
+        <v>0.3466510786719397</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.601132189146057</v>
+        <v>0.5215055623576887</v>
       </c>
       <c r="N4">
-        <v>1.491619175463029</v>
+        <v>1.173347869083756</v>
       </c>
       <c r="O4">
-        <v>2.961911940331987</v>
+        <v>1.728644584535488</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3330452025710571</v>
+        <v>0.1275387438209634</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0006425354953725204</v>
+        <v>0.0003045347628480854</v>
       </c>
       <c r="E5">
-        <v>0.03441511076423787</v>
+        <v>0.0838505088013779</v>
       </c>
       <c r="F5">
-        <v>0.9002120928768562</v>
+        <v>0.5294450575587177</v>
       </c>
       <c r="G5">
-        <v>0.0007492843587077119</v>
+        <v>0.002352600158380138</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2577894659430449</v>
+        <v>0.3469880226902013</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.534042007572808</v>
+        <v>0.5014828662995399</v>
       </c>
       <c r="N5">
-        <v>1.462883227411581</v>
+        <v>1.16458265601679</v>
       </c>
       <c r="O5">
-        <v>2.841691021576281</v>
+        <v>1.700689982315339</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3306946034939386</v>
+        <v>0.1267733001839275</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0006383023140275057</v>
+        <v>0.0003034724573929282</v>
       </c>
       <c r="E6">
-        <v>0.03445318745582071</v>
+        <v>0.08395999175061952</v>
       </c>
       <c r="F6">
-        <v>0.8939029087670036</v>
+        <v>0.5279590384242283</v>
       </c>
       <c r="G6">
-        <v>0.0007495419186239612</v>
+        <v>0.002352778535126593</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2576506631459594</v>
+        <v>0.3470473337663336</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.522911061698707</v>
+        <v>0.4981573755232489</v>
       </c>
       <c r="N6">
-        <v>1.458123695482243</v>
+        <v>1.163133558604699</v>
       </c>
       <c r="O6">
-        <v>2.821807280022597</v>
+        <v>1.696068586248657</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3470041410800349</v>
+        <v>0.1320844829555057</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0006679960959194986</v>
+        <v>0.0003108645328904203</v>
       </c>
       <c r="E7">
-        <v>0.03422259576314879</v>
+        <v>0.08321171865539334</v>
       </c>
       <c r="F7">
-        <v>0.9378346392072245</v>
+        <v>0.5383100965434693</v>
       </c>
       <c r="G7">
-        <v>0.0007477642581946447</v>
+        <v>0.002351551934661234</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2586488355611074</v>
+        <v>0.3466553975647599</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.600226734373081</v>
+        <v>0.5212355789490744</v>
       </c>
       <c r="N7">
-        <v>1.491230820133538</v>
+        <v>1.173229232929458</v>
       </c>
       <c r="O7">
-        <v>2.960285201725583</v>
+        <v>1.7282662068219</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4188315642009144</v>
+        <v>0.1554732662631721</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0008079875372208889</v>
+        <v>0.00034395239284013</v>
       </c>
       <c r="E8">
-        <v>0.03409878772275476</v>
+        <v>0.080200141854462</v>
       </c>
       <c r="F8">
-        <v>1.135513887317458</v>
+        <v>0.5848944421145887</v>
       </c>
       <c r="G8">
-        <v>0.0007401632486628366</v>
+        <v>0.002346423773312893</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2639289660968416</v>
+        <v>0.3454132662848295</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.943072793365431</v>
+        <v>0.6229648977768534</v>
       </c>
       <c r="N8">
-        <v>1.639127104315804</v>
+        <v>1.21869387949954</v>
       </c>
       <c r="O8">
-        <v>3.584065818876411</v>
+        <v>1.873336768882609</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5592863471717351</v>
+        <v>0.2011390620019995</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001129120737535239</v>
+        <v>0.000410630195688988</v>
       </c>
       <c r="E9">
-        <v>0.0376997906223977</v>
+        <v>0.07535646907792248</v>
       </c>
       <c r="F9">
-        <v>1.540867061792255</v>
+        <v>0.6795620543570777</v>
       </c>
       <c r="G9">
-        <v>0.000726067535325872</v>
+        <v>0.002337383030676154</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.277594867565238</v>
+        <v>0.3447178610087889</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.624774353113153</v>
+        <v>0.8220479152741689</v>
       </c>
       <c r="N9">
-        <v>1.936180146891104</v>
+        <v>1.311051190562978</v>
       </c>
       <c r="O9">
-        <v>4.866217782505544</v>
+        <v>2.168754100734589</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6623704268814947</v>
+        <v>0.2345490743204266</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.001410287922494646</v>
+        <v>0.0004608302091995142</v>
       </c>
       <c r="E10">
-        <v>0.04335751068327198</v>
+        <v>0.07246214937741868</v>
       </c>
       <c r="F10">
-        <v>1.853706820032329</v>
+        <v>0.7511966446152201</v>
       </c>
       <c r="G10">
-        <v>0.0007161365572653534</v>
+        <v>0.002331353112524718</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2898224771619873</v>
+        <v>0.3452586487098941</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.135022536318402</v>
+        <v>0.9680733196341436</v>
       </c>
       <c r="N10">
-        <v>2.159321427947589</v>
+        <v>1.380791518839345</v>
       </c>
       <c r="O10">
-        <v>5.858233625489959</v>
+        <v>2.392671230362339</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7092761027081451</v>
+        <v>0.2497138050246974</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.00155268015739729</v>
+        <v>0.0004839591290197731</v>
       </c>
       <c r="E11">
-        <v>0.04675408071556575</v>
+        <v>0.07129335664920511</v>
       </c>
       <c r="F11">
-        <v>2.000351619390642</v>
+        <v>0.7842508572332179</v>
       </c>
       <c r="G11">
-        <v>0.0007116939676727636</v>
+        <v>0.002328741455913663</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2959000759742025</v>
+        <v>0.3457311362551607</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.370127866346465</v>
+        <v>1.034454512046736</v>
       </c>
       <c r="N11">
-        <v>2.262048484366858</v>
+        <v>1.412914284820459</v>
       </c>
       <c r="O11">
-        <v>6.323934785825088</v>
+        <v>2.496076052977287</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7270426429022052</v>
+        <v>0.2554510669212675</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.001609159413906269</v>
+        <v>0.0004927619433168218</v>
       </c>
       <c r="E12">
-        <v>0.04817460304960974</v>
+        <v>0.07087233052261865</v>
       </c>
       <c r="F12">
-        <v>2.056604892546957</v>
+        <v>0.796835767170947</v>
       </c>
       <c r="G12">
-        <v>0.0007100208858317622</v>
+        <v>0.002327771272064991</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.298279133124673</v>
+        <v>0.3459424571215521</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.459674655708881</v>
+        <v>1.059584560137921</v>
       </c>
       <c r="N12">
-        <v>2.301137146851687</v>
+        <v>1.425134245695233</v>
       </c>
       <c r="O12">
-        <v>6.502691743444416</v>
+        <v>2.535458041671575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7232160615056955</v>
+        <v>0.2542156875014427</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.001596873347589955</v>
+        <v>0.0004908640867995473</v>
       </c>
       <c r="E13">
-        <v>0.04786241982173678</v>
+        <v>0.07096204172798615</v>
       </c>
       <c r="F13">
-        <v>2.044455931406929</v>
+        <v>0.7941223446054266</v>
       </c>
       <c r="G13">
-        <v>0.0007103808300472899</v>
+        <v>0.002327979384202053</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2977632506301688</v>
+        <v>0.3458955070387475</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.440364629278136</v>
+        <v>1.054172675005759</v>
       </c>
       <c r="N13">
-        <v>2.292710118512986</v>
+        <v>1.422500000379131</v>
       </c>
       <c r="O13">
-        <v>6.464080542928286</v>
+        <v>2.526966381239447</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7107376630279134</v>
+        <v>0.2501859216732782</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.001557272447385571</v>
+        <v>0.0004846824373130332</v>
       </c>
       <c r="E14">
-        <v>0.04686815784342713</v>
+        <v>0.0712582844920604</v>
       </c>
       <c r="F14">
-        <v>2.00496453124984</v>
+        <v>0.7852848579658058</v>
       </c>
       <c r="G14">
-        <v>0.000711556146826233</v>
+        <v>0.002328661262386083</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2960942261666446</v>
+        <v>0.3457478733574106</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.377484024192199</v>
+        <v>1.036522120047906</v>
       </c>
       <c r="N14">
-        <v>2.265260483433394</v>
+        <v>1.413918518677661</v>
       </c>
       <c r="O14">
-        <v>6.338590975221223</v>
+        <v>2.499311510739005</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.703094935824339</v>
+        <v>0.2477168710868511</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.001533364445256424</v>
+        <v>0.0004809018521703123</v>
       </c>
       <c r="E15">
-        <v>0.04627714163311936</v>
+        <v>0.07144256006627892</v>
       </c>
       <c r="F15">
-        <v>1.980872073846399</v>
+        <v>0.7798805213727462</v>
       </c>
       <c r="G15">
-        <v>0.0007122772150396534</v>
+        <v>0.002329081376933807</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2950821150941181</v>
+        <v>0.3456616579701048</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.339038008340111</v>
+        <v>1.02570971375782</v>
       </c>
       <c r="N15">
-        <v>2.248471694253368</v>
+        <v>1.408669334507096</v>
       </c>
       <c r="O15">
-        <v>6.262048803591995</v>
+        <v>2.482401467472414</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.659305495178927</v>
+        <v>0.2335573075359321</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.001401312560386003</v>
+        <v>0.0004593247640434228</v>
       </c>
       <c r="E16">
-        <v>0.0431534202626942</v>
+        <v>0.0725415342567608</v>
       </c>
       <c r="F16">
-        <v>1.844218637349442</v>
+        <v>0.7490459454154603</v>
       </c>
       <c r="G16">
-        <v>0.0007164282715130913</v>
+        <v>0.002331526425613574</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2894359541957847</v>
+        <v>0.3452323135433133</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.119725269562437</v>
+        <v>0.9637341839949158</v>
       </c>
       <c r="N16">
-        <v>2.152633576362575</v>
+        <v>1.378700100138445</v>
       </c>
       <c r="O16">
-        <v>5.828116769592611</v>
+        <v>2.385944788613642</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.632447011164146</v>
+        <v>0.2248619316181077</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.001324326768001427</v>
+        <v>0.0004461644794702124</v>
       </c>
       <c r="E17">
-        <v>0.04145868416474485</v>
+        <v>0.07325380658924452</v>
       </c>
       <c r="F17">
-        <v>1.761562920628634</v>
+        <v>0.7302501823430276</v>
       </c>
       <c r="G17">
-        <v>0.0007189929745347046</v>
+        <v>0.002333059963572956</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2861066008895286</v>
+        <v>0.345026811972744</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.98600900737199</v>
+        <v>0.9257020191326575</v>
       </c>
       <c r="N17">
-        <v>2.094161005643684</v>
+        <v>1.360415765230982</v>
       </c>
       <c r="O17">
-        <v>5.565833180673849</v>
+        <v>2.327169150809311</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6169996999142597</v>
+        <v>0.2198574409008529</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.001281377362273517</v>
+        <v>0.0004386224337968869</v>
       </c>
       <c r="E18">
-        <v>0.04056030810341937</v>
+        <v>0.07367738427634407</v>
       </c>
       <c r="F18">
-        <v>1.714422783217557</v>
+        <v>0.7194832906219801</v>
       </c>
       <c r="G18">
-        <v>0.0007204752919238667</v>
+        <v>0.002333954386278538</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2842399135789826</v>
+        <v>0.3449299402311077</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.909374647054875</v>
+        <v>0.9038225695064739</v>
       </c>
       <c r="N18">
-        <v>2.060643028147496</v>
+        <v>1.349936600592741</v>
       </c>
       <c r="O18">
-        <v>5.416310744312057</v>
+        <v>2.293508097480242</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6117695977117705</v>
+        <v>0.2181624808082177</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.001267050817731707</v>
+        <v>0.0004360734652246734</v>
       </c>
       <c r="E19">
-        <v>0.04026879565628505</v>
+        <v>0.07382317789651616</v>
       </c>
       <c r="F19">
-        <v>1.698528014139839</v>
+        <v>0.7158453274354883</v>
       </c>
       <c r="G19">
-        <v>0.0007209784552414622</v>
+        <v>0.002334259350475632</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2836160721620615</v>
+        <v>0.3449008092444075</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.88347242501959</v>
+        <v>0.8964138277995914</v>
       </c>
       <c r="N19">
-        <v>2.049313605272374</v>
+        <v>1.346395019233057</v>
       </c>
       <c r="O19">
-        <v>5.365905001951489</v>
+        <v>2.282135885065657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6353060231338077</v>
+        <v>0.2257878975478604</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.001332381121795123</v>
+        <v>0.0004475625614759338</v>
       </c>
       <c r="E20">
-        <v>0.04163107544633249</v>
+        <v>0.07317654341116331</v>
       </c>
       <c r="F20">
-        <v>1.770319552613145</v>
+        <v>0.7322464706094536</v>
       </c>
       <c r="G20">
-        <v>0.0007187192264573662</v>
+        <v>0.002332895436163438</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2864559958828288</v>
+        <v>0.3450464818902041</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.000214198128049</v>
+        <v>0.9297510614582762</v>
       </c>
       <c r="N20">
-        <v>2.10037363291309</v>
+        <v>1.362358292851098</v>
       </c>
       <c r="O20">
-        <v>5.593613148245367</v>
+        <v>2.333410876050209</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.714402730208775</v>
+        <v>0.2513697088198228</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.001568830556989198</v>
+        <v>0.0004864969138687059</v>
       </c>
       <c r="E21">
-        <v>0.04715641472822796</v>
+        <v>0.07117068291820239</v>
       </c>
       <c r="F21">
-        <v>2.016543670726307</v>
+        <v>0.7878787901668858</v>
       </c>
       <c r="G21">
-        <v>0.0007112106905780592</v>
+        <v>0.00232846046873423</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2965823237768674</v>
+        <v>0.3457903589458908</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.395938787381482</v>
+        <v>1.041706710733422</v>
       </c>
       <c r="N21">
-        <v>2.273317891891935</v>
+        <v>1.416437605466683</v>
       </c>
       <c r="O21">
-        <v>6.3753821756261</v>
+        <v>2.507428292173074</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7661239154701605</v>
+        <v>0.2680578436896326</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.001738559755598779</v>
+        <v>0.0005122026983759298</v>
       </c>
       <c r="E22">
-        <v>0.05155924675104728</v>
+        <v>0.06998561079454646</v>
       </c>
       <c r="F22">
-        <v>2.181728491141371</v>
+        <v>0.8246344425602814</v>
       </c>
       <c r="G22">
-        <v>0.0007063563765370077</v>
+        <v>0.002325671458970143</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.303654599038282</v>
+        <v>0.3464653015882462</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.65763265709414</v>
+        <v>1.114834827643264</v>
       </c>
       <c r="N22">
-        <v>2.387450489375226</v>
+        <v>1.452105973008685</v>
       </c>
       <c r="O22">
-        <v>6.900519690138708</v>
+        <v>2.622470523858851</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7385159528930672</v>
+        <v>0.2591540630686495</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.001646402192877261</v>
+        <v>0.0004984584559846184</v>
       </c>
       <c r="E23">
-        <v>0.04913114885434666</v>
+        <v>0.07060648566968553</v>
       </c>
       <c r="F23">
-        <v>2.093140430039824</v>
+        <v>0.8049806927178196</v>
       </c>
       <c r="G23">
-        <v>0.0007089429328848776</v>
+        <v>0.002327150019707281</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2998372134513971</v>
+        <v>0.3460878538873686</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.517649514971183</v>
+        <v>1.075808884337533</v>
       </c>
       <c r="N23">
-        <v>2.326430245913798</v>
+        <v>1.43303986916851</v>
       </c>
       <c r="O23">
-        <v>6.618824428968367</v>
+        <v>2.560949349800239</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.634013482740869</v>
+        <v>0.2253692851471669</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.001328735700554695</v>
+        <v>0.0004469304139718133</v>
       </c>
       <c r="E24">
-        <v>0.04155290196503358</v>
+        <v>0.07321143025130006</v>
       </c>
       <c r="F24">
-        <v>1.766359503850396</v>
+        <v>0.7313438271316812</v>
       </c>
       <c r="G24">
-        <v>0.0007188429633543578</v>
+        <v>0.002332969779222665</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2862978870220836</v>
+        <v>0.3450375228433202</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.993791287507918</v>
+        <v>0.9279205337895462</v>
       </c>
       <c r="N24">
-        <v>2.09756459771026</v>
+        <v>1.361479974016987</v>
       </c>
       <c r="O24">
-        <v>5.581049900267089</v>
+        <v>2.330588587835734</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.521319030781342</v>
+        <v>0.1888085894510425</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.001035685169405554</v>
+        <v>0.0003923883563459185</v>
       </c>
       <c r="E25">
-        <v>0.03624913545294461</v>
+        <v>0.07655137570499093</v>
       </c>
       <c r="F25">
-        <v>1.428900578570961</v>
+        <v>0.6535907021999066</v>
       </c>
       <c r="G25">
-        <v>0.0007298008050680216</v>
+        <v>0.002339720772997057</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2735265938632558</v>
+        <v>0.3447206318636731</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.438995006656128</v>
+        <v>0.7682335872939916</v>
       </c>
       <c r="N25">
-        <v>1.855006970783023</v>
+        <v>1.285730266583215</v>
       </c>
       <c r="O25">
-        <v>4.511681745598821</v>
+        <v>2.08764384693194</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_166/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.161797665277291</v>
+        <v>0.4382616162022828</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0003530347199651729</v>
+        <v>0.0008485409229761487</v>
       </c>
       <c r="E2">
-        <v>0.07945540271330387</v>
+        <v>0.03430283229199382</v>
       </c>
       <c r="F2">
-        <v>0.5977386150767501</v>
+        <v>1.190130067309966</v>
       </c>
       <c r="G2">
-        <v>0.002345103280840417</v>
+        <v>0.0007381608960577493</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3451948428057143</v>
+        <v>0.2655778373085056</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6505005855176478</v>
+        <v>2.036478395701209</v>
       </c>
       <c r="N2">
-        <v>1.231231664624772</v>
+        <v>1.679654400758551</v>
       </c>
       <c r="O2">
-        <v>1.913375912927279</v>
+        <v>3.756590262656744</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1434408339321323</v>
+        <v>0.3818762982332231</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0003268267869325214</v>
+        <v>0.0007340513362379397</v>
       </c>
       <c r="E3">
-        <v>0.08169543410162916</v>
+        <v>0.03398565680384635</v>
       </c>
       <c r="F3">
-        <v>0.5607374907240228</v>
+        <v>1.03296587864844</v>
       </c>
       <c r="G3">
-        <v>0.002349010242533296</v>
+        <v>0.0007440313715371896</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3459606103821358</v>
+        <v>0.2610425822156799</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5706096327045316</v>
+        <v>1.766199067315114</v>
       </c>
       <c r="N3">
-        <v>1.195113874855991</v>
+        <v>1.562633477019219</v>
       </c>
       <c r="O3">
-        <v>1.798077163701407</v>
+        <v>3.260340624309038</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1321466050026316</v>
+        <v>0.3471948991417548</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0003109512802952352</v>
+        <v>0.0006683478697127043</v>
       </c>
       <c r="E4">
-        <v>0.08320312098164528</v>
+        <v>0.03422035929198941</v>
       </c>
       <c r="F4">
-        <v>0.5384317102994913</v>
+        <v>0.9383506100463705</v>
       </c>
       <c r="G4">
-        <v>0.002351537737991335</v>
+        <v>0.0007477435934295891</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3466510786719397</v>
+        <v>0.2586609870134922</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5215055623576887</v>
+        <v>1.601132189146043</v>
       </c>
       <c r="N4">
-        <v>1.173347869083756</v>
+        <v>1.4916191754631</v>
       </c>
       <c r="O4">
-        <v>1.728644584535488</v>
+        <v>2.961911940332044</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1275387438209634</v>
+        <v>0.3330452025709292</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0003045347628480854</v>
+        <v>0.0006425354953742968</v>
       </c>
       <c r="E5">
-        <v>0.0838505088013779</v>
+        <v>0.03441511076423964</v>
       </c>
       <c r="F5">
-        <v>0.5294450575587177</v>
+        <v>0.9002120928768562</v>
       </c>
       <c r="G5">
-        <v>0.002352600158380138</v>
+        <v>0.0007492843587409943</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3469880226902013</v>
+        <v>0.2577894659430413</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5014828662995399</v>
+        <v>1.534042007572808</v>
       </c>
       <c r="N5">
-        <v>1.16458265601679</v>
+        <v>1.462883227411581</v>
       </c>
       <c r="O5">
-        <v>1.700689982315339</v>
+        <v>2.841691021576281</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1267733001839275</v>
+        <v>0.3306946034941944</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0003034724573929282</v>
+        <v>0.0006383023141438571</v>
       </c>
       <c r="E6">
-        <v>0.08395999175061952</v>
+        <v>0.03445318745583847</v>
       </c>
       <c r="F6">
-        <v>0.5279590384242283</v>
+        <v>0.8939029087670178</v>
       </c>
       <c r="G6">
-        <v>0.002352778535126593</v>
+        <v>0.0007495419186811614</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3470473337663336</v>
+        <v>0.257650663145931</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4981573755232489</v>
+        <v>1.522911061698693</v>
       </c>
       <c r="N6">
-        <v>1.163133558604699</v>
+        <v>1.458123695482186</v>
       </c>
       <c r="O6">
-        <v>1.696068586248657</v>
+        <v>2.821807280022597</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1320844829555057</v>
+        <v>0.3470041410798785</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0003108645328904203</v>
+        <v>0.0006679960959239395</v>
       </c>
       <c r="E7">
-        <v>0.08321171865539334</v>
+        <v>0.03422259576319142</v>
       </c>
       <c r="F7">
-        <v>0.5383100965434693</v>
+        <v>0.9378346392072245</v>
       </c>
       <c r="G7">
-        <v>0.002351551934661234</v>
+        <v>0.0007477642581951589</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3466553975647599</v>
+        <v>0.2586488355611039</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5212355789490744</v>
+        <v>1.600226734373067</v>
       </c>
       <c r="N7">
-        <v>1.173229232929458</v>
+        <v>1.491230820133538</v>
       </c>
       <c r="O7">
-        <v>1.7282662068219</v>
+        <v>2.960285201725611</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1554732662631721</v>
+        <v>0.4188315642011702</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00034395239284013</v>
+        <v>0.0008079875372946077</v>
       </c>
       <c r="E8">
-        <v>0.080200141854462</v>
+        <v>0.03409878772273522</v>
       </c>
       <c r="F8">
-        <v>0.5848944421145887</v>
+        <v>1.135513887317444</v>
       </c>
       <c r="G8">
-        <v>0.002346423773312893</v>
+        <v>0.0007401632486991409</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3454132662848295</v>
+        <v>0.2639289660968451</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6229648977768534</v>
+        <v>1.943072793365445</v>
       </c>
       <c r="N8">
-        <v>1.21869387949954</v>
+        <v>1.639127104315747</v>
       </c>
       <c r="O8">
-        <v>1.873336768882609</v>
+        <v>3.584065818876468</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2011390620019995</v>
+        <v>0.5592863471717919</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.000410630195688988</v>
+        <v>0.001129120737646261</v>
       </c>
       <c r="E9">
-        <v>0.07535646907792248</v>
+        <v>0.03769979062237461</v>
       </c>
       <c r="F9">
-        <v>0.6795620543570777</v>
+        <v>1.54086706179227</v>
       </c>
       <c r="G9">
-        <v>0.002337383030676154</v>
+        <v>0.0007260675354095837</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3447178610087889</v>
+        <v>0.2775948675652344</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8220479152741689</v>
+        <v>2.624774353113139</v>
       </c>
       <c r="N9">
-        <v>1.311051190562978</v>
+        <v>1.936180146890933</v>
       </c>
       <c r="O9">
-        <v>2.168754100734589</v>
+        <v>4.866217782505601</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2345490743204266</v>
+        <v>0.6623704268815231</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0004608302091995142</v>
+        <v>0.001410287922398723</v>
       </c>
       <c r="E10">
-        <v>0.07246214937741868</v>
+        <v>0.04335751068326843</v>
       </c>
       <c r="F10">
-        <v>0.7511966446152201</v>
+        <v>1.853706820032315</v>
       </c>
       <c r="G10">
-        <v>0.002331353112524718</v>
+        <v>0.0007161365572647502</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3452586487098941</v>
+        <v>0.2898224771619944</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9680733196341436</v>
+        <v>3.135022536318417</v>
       </c>
       <c r="N10">
-        <v>1.380791518839345</v>
+        <v>2.159321427947589</v>
       </c>
       <c r="O10">
-        <v>2.392671230362339</v>
+        <v>5.858233625489845</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2497138050246974</v>
+        <v>0.7092761027083156</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0004839591290197731</v>
+        <v>0.001552680157410613</v>
       </c>
       <c r="E11">
-        <v>0.07129335664920511</v>
+        <v>0.04675408071557996</v>
       </c>
       <c r="F11">
-        <v>0.7842508572332179</v>
+        <v>2.000351619390656</v>
       </c>
       <c r="G11">
-        <v>0.002328741455913663</v>
+        <v>0.0007116939677653723</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3457311362551607</v>
+        <v>0.295900075974231</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.034454512046736</v>
+        <v>3.370127866346465</v>
       </c>
       <c r="N11">
-        <v>1.412914284820459</v>
+        <v>2.262048484366858</v>
       </c>
       <c r="O11">
-        <v>2.496076052977287</v>
+        <v>6.323934785825145</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2554510669212675</v>
+        <v>0.7270426429022052</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0004927619433168218</v>
+        <v>0.00160915941420825</v>
       </c>
       <c r="E12">
-        <v>0.07087233052261865</v>
+        <v>0.04817460304962395</v>
       </c>
       <c r="F12">
-        <v>0.796835767170947</v>
+        <v>2.056604892546972</v>
       </c>
       <c r="G12">
-        <v>0.002327771272064991</v>
+        <v>0.0007100208857377513</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3459424571215521</v>
+        <v>0.298279133124673</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.059584560137921</v>
+        <v>3.459674655708895</v>
       </c>
       <c r="N12">
-        <v>1.425134245695233</v>
+        <v>2.301137146851573</v>
       </c>
       <c r="O12">
-        <v>2.535458041671575</v>
+        <v>6.502691743444416</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2542156875014427</v>
+        <v>0.7232160615056955</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0004908640867995473</v>
+        <v>0.00159687334759262</v>
       </c>
       <c r="E13">
-        <v>0.07096204172798615</v>
+        <v>0.0478624198217581</v>
       </c>
       <c r="F13">
-        <v>0.7941223446054266</v>
+        <v>2.044455931406944</v>
       </c>
       <c r="G13">
-        <v>0.002327979384202053</v>
+        <v>0.0007103808300747357</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3458955070387475</v>
+        <v>0.2977632506301688</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.054172675005759</v>
+        <v>3.440364629278136</v>
       </c>
       <c r="N13">
-        <v>1.422500000379131</v>
+        <v>2.292710118512957</v>
       </c>
       <c r="O13">
-        <v>2.526966381239447</v>
+        <v>6.464080542928286</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2501859216732782</v>
+        <v>0.7107376630279987</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0004846824373130332</v>
+        <v>0.001557272447382907</v>
       </c>
       <c r="E14">
-        <v>0.0712582844920604</v>
+        <v>0.04686815784343779</v>
       </c>
       <c r="F14">
-        <v>0.7852848579658058</v>
+        <v>2.004964531249826</v>
       </c>
       <c r="G14">
-        <v>0.002328661262386083</v>
+        <v>0.0007115561468720409</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3457478733574106</v>
+        <v>0.2960942261666446</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.036522120047906</v>
+        <v>3.377484024192185</v>
       </c>
       <c r="N14">
-        <v>1.413918518677661</v>
+        <v>2.265260483433366</v>
       </c>
       <c r="O14">
-        <v>2.499311510739005</v>
+        <v>6.338590975221223</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2477168710868511</v>
+        <v>0.7030949358244527</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0004809018521703123</v>
+        <v>0.001533364445260865</v>
       </c>
       <c r="E15">
-        <v>0.07144256006627892</v>
+        <v>0.04627714163308383</v>
       </c>
       <c r="F15">
-        <v>0.7798805213727462</v>
+        <v>1.980872073846356</v>
       </c>
       <c r="G15">
-        <v>0.002329081376933807</v>
+        <v>0.0007122772150132128</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3456616579701048</v>
+        <v>0.2950821150941465</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.02570971375782</v>
+        <v>3.339038008340097</v>
       </c>
       <c r="N15">
-        <v>1.408669334507096</v>
+        <v>2.248471694253254</v>
       </c>
       <c r="O15">
-        <v>2.482401467472414</v>
+        <v>6.262048803591938</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2335573075359321</v>
+        <v>0.6593054951788986</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0004593247640434228</v>
+        <v>0.001401312560297185</v>
       </c>
       <c r="E16">
-        <v>0.0725415342567608</v>
+        <v>0.04315342026267643</v>
       </c>
       <c r="F16">
-        <v>0.7490459454154603</v>
+        <v>1.844218637349442</v>
       </c>
       <c r="G16">
-        <v>0.002331526425613574</v>
+        <v>0.000716428271584954</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3452323135433133</v>
+        <v>0.2894359541957883</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9637341839949158</v>
+        <v>3.119725269562409</v>
       </c>
       <c r="N16">
-        <v>1.378700100138445</v>
+        <v>2.152633576362547</v>
       </c>
       <c r="O16">
-        <v>2.385944788613642</v>
+        <v>5.828116769592611</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2248619316181077</v>
+        <v>0.6324470111639187</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0004461644794702124</v>
+        <v>0.001324326767890405</v>
       </c>
       <c r="E17">
-        <v>0.07325380658924452</v>
+        <v>0.04145868416474485</v>
       </c>
       <c r="F17">
-        <v>0.7302501823430276</v>
+        <v>1.76156292062862</v>
       </c>
       <c r="G17">
-        <v>0.002333059963572956</v>
+        <v>0.0007189929745182167</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.345026811972744</v>
+        <v>0.286106600889525</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9257020191326575</v>
+        <v>2.986009007371962</v>
       </c>
       <c r="N17">
-        <v>1.360415765230982</v>
+        <v>2.094161005643713</v>
       </c>
       <c r="O17">
-        <v>2.327169150809311</v>
+        <v>5.565833180673906</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2198574409008529</v>
+        <v>0.6169996999146008</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0004386224337968869</v>
+        <v>0.001281377362387204</v>
       </c>
       <c r="E18">
-        <v>0.07367738427634407</v>
+        <v>0.04056030810342115</v>
       </c>
       <c r="F18">
-        <v>0.7194832906219801</v>
+        <v>1.714422783217557</v>
       </c>
       <c r="G18">
-        <v>0.002333954386278538</v>
+        <v>0.0007204752919239832</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3449299402311077</v>
+        <v>0.2842399135789826</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9038225695064739</v>
+        <v>2.909374647054904</v>
       </c>
       <c r="N18">
-        <v>1.349936600592741</v>
+        <v>2.060643028147496</v>
       </c>
       <c r="O18">
-        <v>2.293508097480242</v>
+        <v>5.416310744312113</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2181624808082177</v>
+        <v>0.6117695977117421</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0004360734652246734</v>
+        <v>0.001267050817531867</v>
       </c>
       <c r="E19">
-        <v>0.07382317789651616</v>
+        <v>0.04026879565628327</v>
       </c>
       <c r="F19">
-        <v>0.7158453274354883</v>
+        <v>1.698528014139853</v>
       </c>
       <c r="G19">
-        <v>0.002334259350475632</v>
+        <v>0.000720978455257093</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3449008092444075</v>
+        <v>0.2836160721620651</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8964138277995914</v>
+        <v>2.883472425019619</v>
       </c>
       <c r="N19">
-        <v>1.346395019233057</v>
+        <v>2.049313605272431</v>
       </c>
       <c r="O19">
-        <v>2.282135885065657</v>
+        <v>5.365905001951489</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2257878975478604</v>
+        <v>0.6353060231337793</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0004475625614759338</v>
+        <v>0.001332381121883053</v>
       </c>
       <c r="E20">
-        <v>0.07317654341116331</v>
+        <v>0.04163107544632894</v>
       </c>
       <c r="F20">
-        <v>0.7322464706094536</v>
+        <v>1.770319552613145</v>
       </c>
       <c r="G20">
-        <v>0.002332895436163438</v>
+        <v>0.0007187192264297368</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3450464818902041</v>
+        <v>0.2864559958828075</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9297510614582762</v>
+        <v>3.00021419812802</v>
       </c>
       <c r="N20">
-        <v>1.362358292851098</v>
+        <v>2.100373632913119</v>
       </c>
       <c r="O20">
-        <v>2.333410876050209</v>
+        <v>5.593613148245367</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2513697088198228</v>
+        <v>0.7144027302088887</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0004864969138687059</v>
+        <v>0.001568830556878176</v>
       </c>
       <c r="E21">
-        <v>0.07117068291820239</v>
+        <v>0.04715641472822085</v>
       </c>
       <c r="F21">
-        <v>0.7878787901668858</v>
+        <v>2.016543670726293</v>
       </c>
       <c r="G21">
-        <v>0.00232846046873423</v>
+        <v>0.0007112106906053707</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3457903589458908</v>
+        <v>0.2965823237768674</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.041706710733422</v>
+        <v>3.395938787381468</v>
       </c>
       <c r="N21">
-        <v>1.416437605466683</v>
+        <v>2.273317891891907</v>
       </c>
       <c r="O21">
-        <v>2.507428292173074</v>
+        <v>6.375382175626157</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2680578436896326</v>
+        <v>0.7661239154703026</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0005122026983759298</v>
+        <v>0.001738559755597002</v>
       </c>
       <c r="E22">
-        <v>0.06998561079454646</v>
+        <v>0.05155924675101886</v>
       </c>
       <c r="F22">
-        <v>0.8246344425602814</v>
+        <v>2.181728491141399</v>
       </c>
       <c r="G22">
-        <v>0.002325671458970143</v>
+        <v>0.0007063563766123235</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3464653015882462</v>
+        <v>0.3036545990382891</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.114834827643264</v>
+        <v>3.657632657094126</v>
       </c>
       <c r="N22">
-        <v>1.452105973008685</v>
+        <v>2.387450489375368</v>
       </c>
       <c r="O22">
-        <v>2.622470523858851</v>
+        <v>6.900519690138765</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2591540630686495</v>
+        <v>0.7385159528931808</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0004984584559846184</v>
+        <v>0.001646402192969632</v>
       </c>
       <c r="E23">
-        <v>0.07060648566968553</v>
+        <v>0.04913114885434666</v>
       </c>
       <c r="F23">
-        <v>0.8049806927178196</v>
+        <v>2.093140430039824</v>
       </c>
       <c r="G23">
-        <v>0.002327150019707281</v>
+        <v>0.0007089429329115756</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3460878538873686</v>
+        <v>0.2998372134514042</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.075808884337533</v>
+        <v>3.517649514971183</v>
       </c>
       <c r="N23">
-        <v>1.43303986916851</v>
+        <v>2.326430245913684</v>
       </c>
       <c r="O23">
-        <v>2.560949349800239</v>
+        <v>6.618824428968367</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2253692851471669</v>
+        <v>0.6340134827407269</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0004469304139718133</v>
+        <v>0.001328735700663053</v>
       </c>
       <c r="E24">
-        <v>0.07321143025130006</v>
+        <v>0.04155290196502293</v>
       </c>
       <c r="F24">
-        <v>0.7313438271316812</v>
+        <v>1.76635950385041</v>
       </c>
       <c r="G24">
-        <v>0.002332969779222665</v>
+        <v>0.000718842963425629</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3450375228433202</v>
+        <v>0.2862978870221085</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9279205337895462</v>
+        <v>2.993791287507889</v>
       </c>
       <c r="N24">
-        <v>1.361479974016987</v>
+        <v>2.097564597710345</v>
       </c>
       <c r="O24">
-        <v>2.330588587835734</v>
+        <v>5.581049900267033</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1888085894510425</v>
+        <v>0.5213190307813989</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0003923883563459185</v>
+        <v>0.001035685169405554</v>
       </c>
       <c r="E25">
-        <v>0.07655137570499093</v>
+        <v>0.03624913545296771</v>
       </c>
       <c r="F25">
-        <v>0.6535907021999066</v>
+        <v>1.428900578570961</v>
       </c>
       <c r="G25">
-        <v>0.002339720772997057</v>
+        <v>0.0007298008050399364</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3447206318636731</v>
+        <v>0.2735265938632807</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7682335872939916</v>
+        <v>2.438995006656143</v>
       </c>
       <c r="N25">
-        <v>1.285730266583215</v>
+        <v>1.855006970782995</v>
       </c>
       <c r="O25">
-        <v>2.08764384693194</v>
+        <v>4.511681745598821</v>
       </c>
     </row>
   </sheetData>
